--- a/medicine/Enfance/Alice_et_les_Quatre_Mariages/Alice_et_les_Quatre_Mariages.xlsx
+++ b/medicine/Enfance/Alice_et_les_Quatre_Mariages/Alice_et_les_Quatre_Mariages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alice et les Quatre Mariages (titre anglais : The Wedding Day Mystery, littéralement : Le Mystère du jour du mariage) est le 141e[1] roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. 
+Alice et les Quatre Mariages (titre anglais : The Wedding Day Mystery, littéralement : Le Mystère du jour du mariage) est le 141e roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. 
 Aux États-Unis, le roman a été publié pour la première fois en 1997 par Simon &amp; Schuster (New York). En France, il est paru la première fois en 1998 chez Hachette dans la collection Bibliothèque verte sous le numéro 497. Ce roman n'a pas été réédité en France depuis 1999.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Résumé détaillé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l'édition cartonnée parue en 1998 en langue française.
 Engagées comme extra au manoir River House, Alice et ses amies Bess et Marion doivent organiser quatre mariages en un seul week-end. Mais au menu, il n'y a pas que des petits fours et des pièces montées : cadeaux volés, robe de mariée lacérée, sabotages... les catastrophes se succèdent. 
@@ -548,14 +562,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages récurrents
-Alice Roy, jeune fille blonde de dix-huit ans[2], fille de l'avocat James Roy, orpheline de mère.
+          <t>Personnages récurrents</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alice Roy, jeune fille blonde de dix-huit ans, fille de l'avocat James Roy, orpheline de mère.
 Bess Taylor, jeune fille blonde et rondelette, une des meilleures amies d'Alice.
 Marion Webb, jeune fille brune et sportive, cousine germaine de Bess Taylor et une des meilleures amies d'Alice.
 James Roy, avoué de renom, père d'Alice Roy, veuf.
-Sarah[3], la fidèle gouvernante des Roy, qui a élevé Alice à la mort de sa mère.
-Personnages spécifiques à ce roman
-Mandy Applebaum, jeune femme de trente ans, directrice de Noces et Bouquets (Happily Ever After, Inc. en VO), une entreprise spécialisée dans l'organisation de mariages, où travaille Bess.
+Sarah, la fidèle gouvernante des Roy, qui a élevé Alice à la mort de sa mère.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alice_et_les_Quatre_Mariages</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_et_les_Quatre_Mariages</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages spécifiques à ce roman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mandy Applebaum, jeune femme de trente ans, directrice de Noces et Bouquets (Happily Ever After, Inc. en VO), une entreprise spécialisée dans l'organisation de mariages, où travaille Bess.
 Daphné Applebaum, sœur cadette de Mandy. Elle dirige un service de traiteur à domicile, Mets de gourmet.
 Joseph et Jeanine Merrill, vieux époux, banquiers à la retraite et anciens propriétaires du manoir River House (Heights House en VO).
 Grace Merrill Sayer, petite-fille de Joseph et Jeanine Merrill, mariée à Isaiah Sayer. Elle a été l'ancienne occupante du manoir River House. Elle a également été la camarade de classe de Sarah.
@@ -574,31 +627,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Alice_et_les_Quatre_Mariages</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alice_et_les_Quatre_Mariages</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Édition française</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">1998 : Éditions Hachette, collection « Bibliothèque verte », souple (français, version originale), no 497. Illustré par Philippe Daure (7 illustrations in-texte en noir et blanc de pleine page). Traduit par Sandrine Couprie. 15 chapitres. 225 p. </t>
         </is>
